--- a/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>782119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>755079</v>
+        <v>755353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>808857</v>
+        <v>810304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7580709392413461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7318625822991616</v>
+        <v>0.7321277436323934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7839861714285893</v>
+        <v>0.7853894781567904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1013</v>
@@ -765,19 +765,19 @@
         <v>1041359</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1011961</v>
+        <v>1011507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1068118</v>
+        <v>1068869</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7918398835235173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7694859343252577</v>
+        <v>0.7691405753745683</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8121874614683904</v>
+        <v>0.8127582499490421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1796</v>
@@ -786,19 +786,19 @@
         <v>1823477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1786694</v>
+        <v>1785961</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1861638</v>
+        <v>1863651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7769942790858048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7613204712957995</v>
+        <v>0.7610083578163959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7932548469462877</v>
+        <v>0.7941123114445447</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>249604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222866</v>
+        <v>221419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276644</v>
+        <v>276370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2419290607586539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2160138285714113</v>
+        <v>0.2146105218432096</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2681374177008385</v>
+        <v>0.2678722563676066</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>278</v>
@@ -836,19 +836,19 @@
         <v>273754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>246995</v>
+        <v>246244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303152</v>
+        <v>303606</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2081601164764826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1878125385316096</v>
+        <v>0.1872417500509578</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2305140656747422</v>
+        <v>0.2308594246254317</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>533</v>
@@ -857,19 +857,19 @@
         <v>523358</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>485197</v>
+        <v>483184</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>560141</v>
+        <v>560874</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2230057209141952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2067451530537124</v>
+        <v>0.2058876885554559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2386795287042006</v>
+        <v>0.2389916421836042</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1146260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1105271</v>
+        <v>1106777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1181212</v>
+        <v>1182737</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6775663069311121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6533374865826714</v>
+        <v>0.6542276783321845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6982270730975874</v>
+        <v>0.6991283186255868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1059</v>
@@ -982,19 +982,19 @@
         <v>1091164</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1054122</v>
+        <v>1055720</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1124634</v>
+        <v>1129784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6886281926267798</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6652511451109145</v>
+        <v>0.666259806397889</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7097508523271665</v>
+        <v>0.7130012684271038</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2183</v>
@@ -1003,19 +1003,19 @@
         <v>2237424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2183858</v>
+        <v>2181493</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2296837</v>
+        <v>2289157</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6829163044653543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6665667090048619</v>
+        <v>0.665844881098775</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7010505925821762</v>
+        <v>0.6987066538591178</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>545471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>510519</v>
+        <v>508994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>586460</v>
+        <v>584954</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3224336930688879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3017729269024126</v>
+        <v>0.3008716813744133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3466625134173286</v>
+        <v>0.3457723216678154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>492</v>
@@ -1053,19 +1053,19 @@
         <v>493383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>459913</v>
+        <v>454763</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>530425</v>
+        <v>528827</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3113718073732203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2902491476728335</v>
+        <v>0.2869987315728965</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3347488548890855</v>
+        <v>0.3337401936021112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -1074,19 +1074,19 @@
         <v>1038854</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>979441</v>
+        <v>987121</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1092420</v>
+        <v>1094785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3170836955346457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2989494074178238</v>
+        <v>0.3012933461408822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3334332909951382</v>
+        <v>0.3341551189012248</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>374982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>351227</v>
+        <v>351272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>395698</v>
+        <v>396463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6854972894430067</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6420704987591903</v>
+        <v>0.642154039070262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7233684514685665</v>
+        <v>0.7247666719875363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>291</v>
@@ -1199,19 +1199,19 @@
         <v>308144</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>286453</v>
+        <v>285796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>328244</v>
+        <v>331364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6468020540026667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6012715964469411</v>
+        <v>0.5998934913349722</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6889913117736222</v>
+        <v>0.6955406453554883</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>650</v>
@@ -1220,19 +1220,19 @@
         <v>683126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>652848</v>
+        <v>652715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>714712</v>
+        <v>714421</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6674845382375173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6378998396195017</v>
+        <v>0.63776983323724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6983470223919769</v>
+        <v>0.6980629570731807</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>172040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>151324</v>
+        <v>150559</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195795</v>
+        <v>195750</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3145027105569933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2766315485314334</v>
+        <v>0.2752333280124636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3579295012408097</v>
+        <v>0.357845960929738</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1270,19 +1270,19 @@
         <v>168268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148168</v>
+        <v>145048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>189959</v>
+        <v>190616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3531979459973333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3110086882263786</v>
+        <v>0.3044593546445115</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3987284035530603</v>
+        <v>0.4001065086650279</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>326</v>
@@ -1291,19 +1291,19 @@
         <v>340308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>308722</v>
+        <v>309013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>370586</v>
+        <v>370719</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3325154617624827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.301652977608023</v>
+        <v>0.3019370429268194</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3621001603804981</v>
+        <v>0.3622301667627603</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2303361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2251253</v>
+        <v>2251537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2354612</v>
+        <v>2356589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7042892946068394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6883563924830234</v>
+        <v>0.688443060098694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7199601744754434</v>
+        <v>0.720564399926435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2363</v>
@@ -1416,19 +1416,19 @@
         <v>2440666</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2388600</v>
+        <v>2391285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2495223</v>
+        <v>2489051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7229309436597393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7075089307105324</v>
+        <v>0.7083042491732718</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.739090811669768</v>
+        <v>0.7372627195006702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4629</v>
@@ -1437,19 +1437,19 @@
         <v>4744028</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4663278</v>
+        <v>4666749</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4818640</v>
+        <v>4821884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7137582014626049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.701609028763891</v>
+        <v>0.7021312293361965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7249838697388113</v>
+        <v>0.7254719673238966</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>967115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915864</v>
+        <v>913887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1019223</v>
+        <v>1018939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2957107053931606</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2800398255245568</v>
+        <v>0.279435600073565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3116436075169767</v>
+        <v>0.311556939901306</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>931</v>
@@ -1487,19 +1487,19 @@
         <v>935405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>880848</v>
+        <v>887020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>987471</v>
+        <v>984786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2770690563402606</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2609091883302322</v>
+        <v>0.26273728049933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2924910692894676</v>
+        <v>0.2916957508267282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1874</v>
@@ -1508,19 +1508,19 @@
         <v>1902520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1827908</v>
+        <v>1824664</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1983270</v>
+        <v>1979799</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.286241798537395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2750161302611886</v>
+        <v>0.2745280326761033</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.298390971236109</v>
+        <v>0.2978687706638035</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>695041</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>663563</v>
+        <v>666958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>722253</v>
+        <v>722843</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7277013002019977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.694744809138275</v>
+        <v>0.698298918984772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7561927945441201</v>
+        <v>0.7568100137061463</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>953</v>
@@ -1872,19 +1872,19 @@
         <v>1022373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>988462</v>
+        <v>988297</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1049686</v>
+        <v>1055728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7737000817441378</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7480366787360824</v>
+        <v>0.7479121810679957</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7943696748369289</v>
+        <v>0.7989416018590355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1594</v>
@@ -1893,19 +1893,19 @@
         <v>1717413</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1676330</v>
+        <v>1673688</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1760939</v>
+        <v>1755961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7544012637485089</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7363548549415626</v>
+        <v>0.7351940798536921</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7735205640508328</v>
+        <v>0.771333927494721</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>260077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232865</v>
+        <v>232275</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291555</v>
+        <v>288160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2722986997980022</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2438072054558798</v>
+        <v>0.2431899862938534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.305255190861725</v>
+        <v>0.301701081015228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>280</v>
@@ -1943,19 +1943,19 @@
         <v>299035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271722</v>
+        <v>265680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>332946</v>
+        <v>333111</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2262999182558621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2056303251630713</v>
+        <v>0.2010583981409644</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2519633212639178</v>
+        <v>0.2520878189320042</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -1964,19 +1964,19 @@
         <v>559112</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>515586</v>
+        <v>520564</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600195</v>
+        <v>602837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2455987362514911</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2264794359491672</v>
+        <v>0.2286660725052791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2636451450584375</v>
+        <v>0.2648059201463079</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1309027</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1265491</v>
+        <v>1265419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1347852</v>
+        <v>1352537</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.671978919291255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6496300701893125</v>
+        <v>0.649592858729557</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6919091944599046</v>
+        <v>0.6943142194947154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1222</v>
@@ -2089,19 +2089,19 @@
         <v>1320157</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1286412</v>
+        <v>1279980</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1357621</v>
+        <v>1351791</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7564541241534886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7371181257224364</v>
+        <v>0.7334326600212411</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7779214204860687</v>
+        <v>0.7745803658514697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2454</v>
@@ -2110,19 +2110,19 @@
         <v>2629184</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2571850</v>
+        <v>2568526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2685933</v>
+        <v>2685632</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7118968839451636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6963728300727613</v>
+        <v>0.695472738368843</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.72726260771693</v>
+        <v>0.7271812778719821</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>638991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>600166</v>
+        <v>595481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>682527</v>
+        <v>682599</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.328021080708745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3080908055400954</v>
+        <v>0.3056857805052845</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3503699298106875</v>
+        <v>0.3504071412704429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>402</v>
@@ -2160,19 +2160,19 @@
         <v>425034</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387570</v>
+        <v>393400</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458779</v>
+        <v>465211</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2435458758465115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2220785795139313</v>
+        <v>0.2254196341485303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2628818742775635</v>
+        <v>0.2665673399787589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1011</v>
@@ -2181,19 +2181,19 @@
         <v>1064025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1007276</v>
+        <v>1007577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1121359</v>
+        <v>1124683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2881031160548364</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2727373922830694</v>
+        <v>0.272818722128018</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3036271699272381</v>
+        <v>0.3045272616311572</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>321960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>298924</v>
+        <v>298705</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>342723</v>
+        <v>343230</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6760754829114378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6277018252048188</v>
+        <v>0.6272432877789422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7196749324295213</v>
+        <v>0.7207407515926386</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>274</v>
@@ -2306,19 +2306,19 @@
         <v>305779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>285738</v>
+        <v>284635</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>324491</v>
+        <v>325946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6761638552105204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6318467422064118</v>
+        <v>0.6294084140530093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7175419356840254</v>
+        <v>0.7207596895327663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>567</v>
@@ -2327,19 +2327,19 @@
         <v>627739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>596885</v>
+        <v>596762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>657617</v>
+        <v>654908</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6761185271747113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6428871236036598</v>
+        <v>0.6427540381354599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7082991717834013</v>
+        <v>0.7053821045528872</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>154259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133496</v>
+        <v>132989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>177295</v>
+        <v>177514</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3239245170885622</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2803250675704785</v>
+        <v>0.2792592484073614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3722981747951812</v>
+        <v>0.3727567122210577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -2377,19 +2377,19 @@
         <v>146447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>127735</v>
+        <v>126280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166488</v>
+        <v>167591</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3238361447894796</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2824580643159746</v>
+        <v>0.2792403104672337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3681532577935882</v>
+        <v>0.3705915859469907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>272</v>
@@ -2398,19 +2398,19 @@
         <v>300706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>270828</v>
+        <v>273537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>331560</v>
+        <v>331683</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3238814728252887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2917008282165986</v>
+        <v>0.2946178954471129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3571128763963401</v>
+        <v>0.3572459618645402</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>2326028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2273071</v>
+        <v>2267557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2383628</v>
+        <v>2377305</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6883051985203571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6726346297432377</v>
+        <v>0.6710029402414741</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7053498846121472</v>
+        <v>0.7034790644689751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2449</v>
@@ -2523,19 +2523,19 @@
         <v>2648309</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2592673</v>
+        <v>2601093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2702214</v>
+        <v>2702066</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7526118220374597</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7368006949763867</v>
+        <v>0.7391936661825491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7679306484826011</v>
+        <v>0.7678886827286386</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4615</v>
@@ -2544,19 +2544,19 @@
         <v>4974336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4901270</v>
+        <v>4900220</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5047877</v>
+        <v>5051807</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7211085980648273</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7105165416013359</v>
+        <v>0.710364325204514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7317694546024818</v>
+        <v>0.7323392867505122</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1053327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>995727</v>
+        <v>1002050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1106284</v>
+        <v>1111798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3116948014796429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2946501153878529</v>
+        <v>0.2965209355310249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3273653702567624</v>
+        <v>0.328997059758526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>814</v>
@@ -2594,19 +2594,19 @@
         <v>870516</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>816611</v>
+        <v>816759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>926152</v>
+        <v>917732</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2473881779625403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2320693515173988</v>
+        <v>0.2321113172713614</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2631993050236132</v>
+        <v>0.2608063338174508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1810</v>
@@ -2615,19 +2615,19 @@
         <v>1923843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1850302</v>
+        <v>1846372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1996909</v>
+        <v>1997959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2788914019351726</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2682305453975187</v>
+        <v>0.2676607132494878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2894834583986641</v>
+        <v>0.2896356747954863</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>613022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>592399</v>
+        <v>590507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>634441</v>
+        <v>633534</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8189879535270248</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7914351075770566</v>
+        <v>0.7889084214073615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8476031324300161</v>
+        <v>0.8463913627319161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>774</v>
@@ -2979,19 +2979,19 @@
         <v>865604</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>842279</v>
+        <v>844164</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>885641</v>
+        <v>885002</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8777958232611645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8541420793639738</v>
+        <v>0.8560536279187814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.898114924157118</v>
+        <v>0.8974664602853261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1395</v>
@@ -3000,19 +3000,19 @@
         <v>1478626</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1447845</v>
+        <v>1447376</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1508128</v>
+        <v>1507969</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8524194806079475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8346741964330209</v>
+        <v>0.8344039922013219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8694267738706309</v>
+        <v>0.8693352967252477</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>135490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114071</v>
+        <v>114978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>156113</v>
+        <v>158005</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1810120464729752</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1523968675699836</v>
+        <v>0.1536086372680838</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2085648924229435</v>
+        <v>0.2110915785926384</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -3050,19 +3050,19 @@
         <v>120507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100470</v>
+        <v>101109</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>143832</v>
+        <v>141947</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1222041767388355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.101885075842882</v>
+        <v>0.102533539714674</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1458579206360263</v>
+        <v>0.1439463720812185</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -3071,19 +3071,19 @@
         <v>255997</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226495</v>
+        <v>226654</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286778</v>
+        <v>287247</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1475805193920526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1305732261293691</v>
+        <v>0.1306647032747524</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1653258035669792</v>
+        <v>0.1655960077986784</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1713554</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1681439</v>
+        <v>1674762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1747015</v>
+        <v>1746644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8323500096017676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8167503289815131</v>
+        <v>0.8135068213564404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8486034998127571</v>
+        <v>0.8484233770351991</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1613</v>
@@ -3196,19 +3196,19 @@
         <v>1689303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1657317</v>
+        <v>1655697</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1720413</v>
+        <v>1717289</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8573572960189184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8411233252396955</v>
+        <v>0.8403011261045875</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8731459980040844</v>
+        <v>0.8715603687250649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3224</v>
@@ -3217,19 +3217,19 @@
         <v>3402857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3358186</v>
+        <v>3356357</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3453036</v>
+        <v>3453518</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8445795216450793</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8334921633559449</v>
+        <v>0.8330383468819617</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8570338151298307</v>
+        <v>0.8571534034873484</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>345140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311679</v>
+        <v>312050</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>377255</v>
+        <v>383932</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1676499903982324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1513965001872433</v>
+        <v>0.151576622964801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1832496710184875</v>
+        <v>0.1864931786435596</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -3267,19 +3267,19 @@
         <v>281058</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>249948</v>
+        <v>253072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313044</v>
+        <v>314664</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1426427039810815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1268540019959154</v>
+        <v>0.1284396312749349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1588766747603045</v>
+        <v>0.1596988738954121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -3288,19 +3288,19 @@
         <v>626198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>576019</v>
+        <v>575537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>670869</v>
+        <v>672698</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1554204783549207</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1429661848701693</v>
+        <v>0.1428465965126516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.166507836644055</v>
+        <v>0.1669616531180383</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>417243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>397329</v>
+        <v>394630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>437119</v>
+        <v>436319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7669166594732438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7303122184668722</v>
+        <v>0.7253527634220033</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8034492683707188</v>
+        <v>0.8019781732469595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>390</v>
@@ -3413,19 +3413,19 @@
         <v>408604</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>385699</v>
+        <v>385095</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>428254</v>
+        <v>427822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7568845098070278</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7144556892596896</v>
+        <v>0.713336440806507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7932831061017576</v>
+        <v>0.7924832963892021</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>770</v>
@@ -3434,19 +3434,19 @@
         <v>825848</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>798468</v>
+        <v>797431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>852313</v>
+        <v>853073</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7619200339957563</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7366597646641706</v>
+        <v>0.735702608802609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.786336556431109</v>
+        <v>0.7870371971533487</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>126810</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106934</v>
+        <v>107734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146724</v>
+        <v>149423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2330833405267562</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1965507316292812</v>
+        <v>0.1980218267530406</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2696877815331278</v>
+        <v>0.2746472365779968</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -3484,19 +3484,19 @@
         <v>131246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111596</v>
+        <v>112028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>154151</v>
+        <v>154755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2431154901929722</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2067168938982426</v>
+        <v>0.207516703610798</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2855443107403108</v>
+        <v>0.2866635591934932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>246</v>
@@ -3505,19 +3505,19 @@
         <v>258056</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>231591</v>
+        <v>230831</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285436</v>
+        <v>286473</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2380799660042438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2136634435688907</v>
+        <v>0.2129628028466513</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2633402353358293</v>
+        <v>0.264297391197391</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>2743820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2695954</v>
+        <v>2693419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2785298</v>
+        <v>2785231</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8187429219274739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8044598771690334</v>
+        <v>0.8037034356054351</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8311197802590642</v>
+        <v>0.8310996075924973</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2777</v>
@@ -3630,19 +3630,19 @@
         <v>2963512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2917415</v>
+        <v>2918265</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2999993</v>
+        <v>3003412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8476083047351021</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8344239063470709</v>
+        <v>0.8346668742085964</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8580422883470885</v>
+        <v>0.8590202435942531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5389</v>
@@ -3651,19 +3651,19 @@
         <v>5707332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5646285</v>
+        <v>5641710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5764584</v>
+        <v>5761361</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8334813638422571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8245662703000824</v>
+        <v>0.8238980951116793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8418423311182797</v>
+        <v>0.8413715834779166</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>607440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>565962</v>
+        <v>566029</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>655306</v>
+        <v>657841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1812570780725261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.168880219740936</v>
+        <v>0.1689003924075026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1955401228309667</v>
+        <v>0.1962965643945649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>516</v>
@@ -3701,19 +3701,19 @@
         <v>532811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>496330</v>
+        <v>492911</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>578908</v>
+        <v>578058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1523916952648979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1419577116529117</v>
+        <v>0.1409797564057471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1655760936529299</v>
+        <v>0.1653331257914036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1096</v>
@@ -3722,19 +3722,19 @@
         <v>1140250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1082998</v>
+        <v>1086221</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1201297</v>
+        <v>1205872</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1665186361577428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1581576688817203</v>
+        <v>0.1586284165220834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1754337296999175</v>
+        <v>0.1761019048883208</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>382152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>359425</v>
+        <v>360079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>402066</v>
+        <v>403629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6755636705649254</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6353873313375987</v>
+        <v>0.6365444917477001</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7107688141005566</v>
+        <v>0.7135310918128974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>995</v>
@@ -4086,19 +4086,19 @@
         <v>573544</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>552859</v>
+        <v>552505</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>592223</v>
+        <v>592627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7228214342070973</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6967528189274372</v>
+        <v>0.6963056165602877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7463620884383384</v>
+        <v>0.7468704314976491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1462</v>
@@ -4107,19 +4107,19 @@
         <v>955696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>923257</v>
+        <v>921093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>981812</v>
+        <v>982410</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7031528820927435</v>
+        <v>0.7031528820927437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6792862220355876</v>
+        <v>0.6776941448749411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7223679545547218</v>
+        <v>0.7228074417551761</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>183526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163612</v>
+        <v>162049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206253</v>
+        <v>205599</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3244363294350745</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2892311858994432</v>
+        <v>0.2864689081871024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3646126686624014</v>
+        <v>0.3634555082522999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>381</v>
@@ -4157,19 +4157,19 @@
         <v>219936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201257</v>
+        <v>200853</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240621</v>
+        <v>240975</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2771785657929027</v>
+        <v>0.2771785657929026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2536379115616617</v>
+        <v>0.253129568502351</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3032471810725628</v>
+        <v>0.3036943834397124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -4178,19 +4178,19 @@
         <v>403462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>377346</v>
+        <v>376748</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>435901</v>
+        <v>438065</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2968471179072564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2776320454452781</v>
+        <v>0.2771925582448239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3207137779644123</v>
+        <v>0.3223058551250593</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1416484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1364073</v>
+        <v>1362321</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1472881</v>
+        <v>1467208</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6421090361315432</v>
+        <v>0.6421090361315431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6183503211941486</v>
+        <v>0.6175563011505297</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6676745808765767</v>
+        <v>0.6651025450354401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1947</v>
@@ -4303,19 +4303,19 @@
         <v>1396466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1351690</v>
+        <v>1356015</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1440434</v>
+        <v>1439225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6533501998377413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6324010257737058</v>
+        <v>0.6344248175256357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.673921088863742</v>
+        <v>0.6733553772608787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3273</v>
@@ -4324,19 +4324,19 @@
         <v>2812950</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2734775</v>
+        <v>2738981</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2883421</v>
+        <v>2876276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6476408540638161</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6296421492864244</v>
+        <v>0.6306105418227929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6638657383733512</v>
+        <v>0.662220707259889</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>789503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>733106</v>
+        <v>738779</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>841914</v>
+        <v>843666</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3578909638684569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3323254191234232</v>
+        <v>0.33489745496456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3816496788058514</v>
+        <v>0.3824436988494705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -4374,19 +4374,19 @@
         <v>740927</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>696959</v>
+        <v>698168</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>785703</v>
+        <v>781378</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3466498001622588</v>
+        <v>0.3466498001622587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3260789111362581</v>
+        <v>0.3266446227391215</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3675989742262941</v>
+        <v>0.3655751824743642</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1574</v>
@@ -4395,19 +4395,19 @@
         <v>1530430</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1459959</v>
+        <v>1467104</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1608605</v>
+        <v>1604399</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3523591459361838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3361342616266487</v>
+        <v>0.3377792927401109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3703578507135752</v>
+        <v>0.3693894581772072</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>431481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>401123</v>
+        <v>403899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>457570</v>
+        <v>458627</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6187664920095327</v>
+        <v>0.6187664920095326</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5752318684726339</v>
+        <v>0.579213433333124</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6561793051211021</v>
+        <v>0.6576954056258719</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>599</v>
@@ -4520,19 +4520,19 @@
         <v>419772</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>396429</v>
+        <v>392816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>442122</v>
+        <v>443289</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5768751258689929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5447964213552559</v>
+        <v>0.5398308462469479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6075896104165681</v>
+        <v>0.6091939078816554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1018</v>
@@ -4541,19 +4541,19 @@
         <v>851253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>813409</v>
+        <v>813289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>886210</v>
+        <v>888330</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5973748332632033</v>
+        <v>0.5973748332632032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.570817646447936</v>
+        <v>0.5707337620049884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6219064080167708</v>
+        <v>0.6233945857086037</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>265843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239754</v>
+        <v>238697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296201</v>
+        <v>293425</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3812335079904674</v>
+        <v>0.3812335079904673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.343820694878898</v>
+        <v>0.342304594374128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4247681315273661</v>
+        <v>0.420786566666876</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>395</v>
@@ -4591,19 +4591,19 @@
         <v>307893</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>285543</v>
+        <v>284376</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331236</v>
+        <v>334849</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.423124874131007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3924103895834319</v>
+        <v>0.3908060921183444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4552035786447443</v>
+        <v>0.4601691537530521</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -4612,19 +4612,19 @@
         <v>573736</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>538779</v>
+        <v>536659</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611580</v>
+        <v>611700</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4026251667367969</v>
+        <v>0.4026251667367968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3780935919832292</v>
+        <v>0.3766054142913964</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.429182353552064</v>
+        <v>0.4292662379950117</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>2230116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2165267</v>
+        <v>2166673</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2294845</v>
+        <v>2295934</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6428721503526246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6241781581846694</v>
+        <v>0.6245833858546477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.661531278848199</v>
+        <v>0.6618454154868421</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3541</v>
@@ -4737,19 +4737,19 @@
         <v>2389782</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2331947</v>
+        <v>2336121</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2437595</v>
+        <v>2440395</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6532069281201572</v>
+        <v>0.6532069281201571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6373985744113004</v>
+        <v>0.6385396295733379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6662757207562752</v>
+        <v>0.6670410495955391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5753</v>
@@ -4758,19 +4758,19 @@
         <v>4619899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4538969</v>
+        <v>4525596</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4700314</v>
+        <v>4698729</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.6481769610038914</v>
+        <v>0.6481769610038917</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6368224856874933</v>
+        <v>0.634946241439192</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6594592955491068</v>
+        <v>0.6592368720723316</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1238873</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1174144</v>
+        <v>1173055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1303722</v>
+        <v>1302316</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3571278496473752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3384687211518005</v>
+        <v>0.3381545845131581</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3758218418153305</v>
+        <v>0.3754166141453522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1706</v>
@@ -4808,19 +4808,19 @@
         <v>1268756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1220943</v>
+        <v>1218143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1326591</v>
+        <v>1322417</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3467930718798429</v>
+        <v>0.3467930718798428</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3337242792437249</v>
+        <v>0.3329589504044611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3626014255886997</v>
+        <v>0.361460370426662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2804</v>
@@ -4829,19 +4829,19 @@
         <v>2507628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2427213</v>
+        <v>2428798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2588558</v>
+        <v>2601931</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3518230389961085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3405407044508932</v>
+        <v>0.3407631279276684</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3631775143125066</v>
+        <v>0.365053758560808</v>
       </c>
     </row>
     <row r="15">
